--- a/data/trans_camb/P1435-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1435-Provincia-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.402058227961418</v>
+        <v>-5.272831029109912</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.166850577960693</v>
+        <v>-4.984230762592821</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.367203066287261</v>
+        <v>-6.561318806088241</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7710602742029504</v>
+        <v>0.851628622900567</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9303181250096463</v>
+        <v>1.197354651272894</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.42435856297354</v>
+        <v>-1.393600319953244</v>
       </c>
     </row>
     <row r="7">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9024608276781271</v>
+        <v>-0.8742697320367308</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.83965246699885</v>
+        <v>-0.8168782672207253</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>-1</v>
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5063032003356617</v>
+        <v>0.6562810700138751</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5847495645806499</v>
+        <v>0.8262929768219908</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.5907059105983059</v>
+        <v>-0.5827497950404432</v>
       </c>
     </row>
     <row r="10">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.20937176121912</v>
+        <v>-15.01060480214313</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-19.7131643057693</v>
+        <v>-19.55147722635537</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-15.09516378612535</v>
+        <v>-15.04272252536586</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.038458591094537</v>
+        <v>-7.25994623108992</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-13.22512175488449</v>
+        <v>-13.11814116138327</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-7.138865217692005</v>
+        <v>-7.117326703332076</v>
       </c>
     </row>
     <row r="13">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.775424146817917</v>
+        <v>-0.758603893657754</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.988117181601937</v>
+        <v>-0.988501313571331</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7805808158784954</v>
+        <v>-0.7710978633096225</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.4689773621087451</v>
+        <v>-0.4584010301069609</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.8877969419416712</v>
+        <v>-0.8825421301894225</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.4823193317014403</v>
+        <v>-0.4706551097626028</v>
       </c>
     </row>
     <row r="16">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.692877873916903</v>
+        <v>-4.938055132688511</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.523048217570139</v>
+        <v>-5.897703464493103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.822128829554098</v>
+        <v>-4.626955630511516</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.120779961833471</v>
+        <v>1.186937979910347</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1952691453339581</v>
+        <v>0.03261537717069244</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.004686391632099</v>
+        <v>1.168507325357398</v>
       </c>
     </row>
     <row r="19">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7356527320585754</v>
+        <v>-0.7377487154590481</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.818628464173917</v>
+        <v>-0.8258102482916845</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7099081349227877</v>
+        <v>-0.7265055199136341</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4264786868181439</v>
+        <v>0.4767423406318165</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.03261644203462537</v>
+        <v>0.07768177094578017</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4193854309234986</v>
+        <v>0.4139827163247978</v>
       </c>
     </row>
     <row r="22">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.055965684365328</v>
+        <v>-7.048896068626051</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.995739807735358</v>
+        <v>-8.951300562802574</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.370754009337309</v>
+        <v>-6.258753159651284</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.22797639908573</v>
+        <v>-0.3437695805362027</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.340257875556702</v>
+        <v>-3.264242611751886</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5196418881161234</v>
+        <v>0.3745594230299747</v>
       </c>
     </row>
     <row r="25">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7684879178215471</v>
+        <v>-0.7632367309734538</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.9438293276076127</v>
+        <v>-0.9475921293207077</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6929897921018842</v>
+        <v>-0.6814980483451648</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.01046578667803008</v>
+        <v>-0.02539910267399899</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.5635645288167587</v>
+        <v>-0.5808939933779877</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1662497658101984</v>
+        <v>0.1573795131419299</v>
       </c>
     </row>
     <row r="28">
@@ -1014,7 +1014,7 @@
         <v>-0.8819395229113243</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.291745811499386</v>
+        <v>6.291745811499385</v>
       </c>
     </row>
     <row r="29">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.937528158955876</v>
+        <v>0.7466656170050296</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.009100794187191</v>
+        <v>-3.947523101900453</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.579768608403335</v>
+        <v>2.556215579871949</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.894722154497039</v>
+        <v>9.624683595562507</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.739833852203928</v>
+        <v>1.85403134302202</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9.709257082926147</v>
+        <v>9.984425810721657</v>
       </c>
     </row>
     <row r="31">
@@ -1065,7 +1065,7 @@
         <v>-0.3322516729273662</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2.370279386735916</v>
+        <v>2.370279386735915</v>
       </c>
     </row>
     <row r="32">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.09361142332159804</v>
+        <v>-0.0144993733605398</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8892887668503656</v>
+        <v>-0.909595864805525</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3128227788235955</v>
+        <v>0.3274015232522848</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>9.038140818679599</v>
+        <v>8.278160584273266</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.91392434637207</v>
+        <v>2.636130516546154</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>8.616337840975156</v>
+        <v>9.409489589836474</v>
       </c>
     </row>
     <row r="34">
@@ -1131,13 +1131,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-6.04792909237165</v>
+        <v>-6.147406830457075</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.90298958215636</v>
+        <v>-12.2372107190748</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-8.089880818404223</v>
+        <v>-8.211134948172081</v>
       </c>
     </row>
     <row r="36">
@@ -1148,13 +1148,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.943764170576629</v>
+        <v>2.425818893628732</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-4.979166528143679</v>
+        <v>-5.034972074051057</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.2631693807200707</v>
+        <v>-0.2699649611981645</v>
       </c>
     </row>
     <row r="37">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5575930762744692</v>
+        <v>-0.5621045247187751</v>
       </c>
       <c r="D38" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7362501700137459</v>
+        <v>-0.7431092480832663</v>
       </c>
     </row>
     <row r="39">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5757385046432836</v>
+        <v>0.3577375778024362</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.7696197475630167</v>
+        <v>-0.7460353386822413</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.02980772233758311</v>
+        <v>-0.002713886462908066</v>
       </c>
     </row>
     <row r="40">
@@ -1237,13 +1237,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.299456644022597</v>
+        <v>-3.368882945547602</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.328374105381128</v>
+        <v>-2.405431772983345</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>7.521489287342599</v>
+        <v>7.135522419316634</v>
       </c>
     </row>
     <row r="42">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.088520045583311</v>
+        <v>1.283747353614825</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.368909631993859</v>
+        <v>2.338863356722283</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.52776593734603</v>
+        <v>13.63618174788235</v>
       </c>
     </row>
     <row r="43">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5570874514596997</v>
+        <v>-0.548819532753569</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3886501477889752</v>
+        <v>-0.4061034546403852</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>1.191193582039323</v>
+        <v>1.169302623139004</v>
       </c>
     </row>
     <row r="45">
@@ -1305,13 +1305,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.3596933380492723</v>
+        <v>0.3704055055546177</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7396572579281629</v>
+        <v>0.71773346355798</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.915891151920408</v>
+        <v>4.013013056969707</v>
       </c>
     </row>
     <row r="46">
@@ -1332,7 +1332,7 @@
         <v>-6.949242946336683</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-5.848413452327643</v>
+        <v>-5.848413452327642</v>
       </c>
     </row>
     <row r="47">
@@ -1343,13 +1343,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-8.617314388939681</v>
+        <v>-8.542358163091137</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-9.055272785559012</v>
+        <v>-9.080484011226671</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-8.106995365369924</v>
+        <v>-8.195465488070983</v>
       </c>
     </row>
     <row r="48">
@@ -1360,13 +1360,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-4.34672362926857</v>
+        <v>-4.344121811971104</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-5.092320297053045</v>
+        <v>-4.956469923248338</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-3.734392520627367</v>
+        <v>-3.753737663564162</v>
       </c>
     </row>
     <row r="49">
@@ -1383,7 +1383,7 @@
         <v>-0.8776090802203983</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.7385870360672231</v>
+        <v>-0.738587036067223</v>
       </c>
     </row>
     <row r="50">
@@ -1394,13 +1394,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8916175398687093</v>
+        <v>-0.8919583704000288</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.9442596799488475</v>
+        <v>-0.9439414889592449</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.8498201079168116</v>
+        <v>-0.8526967820118683</v>
       </c>
     </row>
     <row r="51">
@@ -1411,13 +1411,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.6355221622659506</v>
+        <v>-0.6401840419115675</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.762735392269599</v>
+        <v>-0.7505811620324057</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.5416515655917574</v>
+        <v>-0.5742806629821849</v>
       </c>
     </row>
     <row r="52">
@@ -1449,13 +1449,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-4.897296653264258</v>
+        <v>-4.960174250223071</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-6.836314389101999</v>
+        <v>-6.866126410489702</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-2.695939140567598</v>
+        <v>-2.763033231489436</v>
       </c>
     </row>
     <row r="54">
@@ -1466,13 +1466,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>-2.637779204267404</v>
+        <v>-2.746040310123302</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-4.76755878464011</v>
+        <v>-4.878993930580084</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.2411263191219034</v>
+        <v>-0.4481437395181161</v>
       </c>
     </row>
     <row r="55">
@@ -1500,13 +1500,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5834710484071516</v>
+        <v>-0.5997896382721327</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.8136478757809018</v>
+        <v>-0.8150367314151155</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.3230768464885266</v>
+        <v>-0.3317437847335603</v>
       </c>
     </row>
     <row r="57">
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>-0.3732151872940536</v>
+        <v>-0.3860417337555722</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.6819664707716592</v>
+        <v>-0.6879068650471465</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.03320161511917676</v>
+        <v>-0.06164507015906943</v>
       </c>
     </row>
     <row r="58">
